--- a/dist/data/profiles/xlsx/bluff/profile 22-2 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 22-2 graph.xlsx
@@ -3252,11 +3252,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="60920169"/>
-        <c:axId val="88321436"/>
+        <c:axId val="2600747"/>
+        <c:axId val="56504142"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60920169"/>
+        <c:axId val="2600747"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3291,12 +3291,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88321436"/>
+        <c:crossAx val="56504142"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88321436"/>
+        <c:axId val="56504142"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3340,7 +3340,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60920169"/>
+        <c:crossAx val="2600747"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
